--- a/result_tomorrow.xlsx
+++ b/result_tomorrow.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Horse</t>
   </si>
@@ -41,49 +41,64 @@
     <t>BP</t>
   </si>
   <si>
-    <t>REALLY SWISH</t>
+    <t>BOLD SHOT</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14:50</t>
+  </si>
+  <si>
+    <t>2018-08-30 00:00:00</t>
+  </si>
+  <si>
+    <t>Skyracing/Blackbookers</t>
+  </si>
+  <si>
+    <t>Rockhampton R6</t>
+  </si>
+  <si>
+    <t>56.5</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11:30</t>
-  </si>
-  <si>
-    <t>2018-09-18 00:00:00</t>
-  </si>
-  <si>
-    <t>G1X+Punters.com/Trial Files</t>
-  </si>
-  <si>
-    <t>Seymour R3</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>RIVER JEWEL</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18:00</t>
-  </si>
-  <si>
-    <t>2018-10-16 00:00:00</t>
-  </si>
-  <si>
-    <t>Punters.com/Trial Files/Bm 64</t>
-  </si>
-  <si>
-    <t>Pakenham Park R7</t>
+    <t>JUNGLE JANE</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2018-11-04 00:00:00</t>
+  </si>
+  <si>
+    <t>OP(Leave in/Could not get clear ran on well)(25/10/2018)Punters.com/Trial to Track</t>
+  </si>
+  <si>
+    <t>Vaal R2</t>
   </si>
   <si>
     <t>58.0</t>
+  </si>
+  <si>
+    <t>MYSTIC FORCES</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2018-10-15 00:00:00</t>
+  </si>
+  <si>
+    <t>Ubet</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -432,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,23 +514,47 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s"/>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
